--- a/配置文档/子弹及效果相关/子弹配置.xlsx
+++ b/配置文档/子弹及效果相关/子弹配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20160" windowHeight="7665" firstSheet="2" activeTab="2"/>
+    <workbookView windowHeight="17655" firstSheet="2"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_BulletScene_子弹场景数据" sheetId="6" r:id="rId1"/>
@@ -1186,14 +1186,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1553,8 +1550,8 @@
   <sheetPr/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1566,119 +1563,119 @@
   </cols>
   <sheetData>
     <row r="1" ht="57" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:4">
-      <c r="A5" s="4">
+    <row r="5" s="3" customFormat="1" spans="1:4">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:4">
-      <c r="A6" s="4">
+    <row r="6" s="3" customFormat="1" spans="1:4">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:4">
-      <c r="A7" s="4">
+    <row r="7" s="3" customFormat="1" spans="1:4">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1"/>
-    <row r="9" s="4" customFormat="1"/>
-    <row r="10" s="4" customFormat="1"/>
-    <row r="11" s="4" customFormat="1"/>
-    <row r="12" s="4" customFormat="1"/>
-    <row r="13" s="4" customFormat="1"/>
-    <row r="14" s="4" customFormat="1"/>
-    <row r="15" s="4" customFormat="1"/>
-    <row r="16" s="4" customFormat="1"/>
-    <row r="17" s="4" customFormat="1"/>
-    <row r="18" s="4" customFormat="1"/>
-    <row r="19" s="4" customFormat="1"/>
-    <row r="20" s="4" customFormat="1"/>
-    <row r="21" s="4" customFormat="1"/>
-    <row r="22" s="4" customFormat="1"/>
-    <row r="23" s="4" customFormat="1"/>
+    <row r="8" s="3" customFormat="1"/>
+    <row r="9" s="3" customFormat="1"/>
+    <row r="10" s="3" customFormat="1"/>
+    <row r="11" s="3" customFormat="1"/>
+    <row r="12" s="3" customFormat="1"/>
+    <row r="13" s="3" customFormat="1"/>
+    <row r="14" s="3" customFormat="1"/>
+    <row r="15" s="3" customFormat="1"/>
+    <row r="16" s="3" customFormat="1"/>
+    <row r="17" s="3" customFormat="1"/>
+    <row r="18" s="3" customFormat="1"/>
+    <row r="19" s="3" customFormat="1"/>
+    <row r="20" s="3" customFormat="1"/>
+    <row r="21" s="3" customFormat="1"/>
+    <row r="22" s="3" customFormat="1"/>
+    <row r="23" s="3" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:D4">
@@ -1695,8 +1692,8 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1704,197 +1701,197 @@
     <col min="1" max="1" width="22.6083333333333" customWidth="1"/>
     <col min="2" max="2" width="30.8833333333333" customWidth="1"/>
     <col min="3" max="3" width="36.875" customWidth="1"/>
-    <col min="4" max="4" width="32.3" style="11" customWidth="1"/>
+    <col min="4" max="4" width="32.3" style="10" customWidth="1"/>
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="7" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="85.5" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>2</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:6">
-      <c r="A5" s="4">
+    <row r="5" s="3" customFormat="1" spans="1:6">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="4:4">
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="4:4">
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" s="4" customFormat="1" spans="4:4">
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" s="4" customFormat="1" spans="4:4">
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="4:4">
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" s="4" customFormat="1" spans="4:4">
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" s="4" customFormat="1" spans="4:4">
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" s="4" customFormat="1" spans="4:4">
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" s="4" customFormat="1" spans="4:4">
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" s="4" customFormat="1" spans="4:4">
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="4:4">
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="4:4">
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="4:4">
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="4:4">
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" s="4" customFormat="1" spans="4:4">
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" s="4" customFormat="1" spans="4:4">
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" s="4" customFormat="1" spans="4:4">
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" s="4" customFormat="1" spans="4:4">
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" s="4" customFormat="1" spans="4:4">
-      <c r="D24" s="10"/>
+    <row r="6" s="3" customFormat="1" spans="4:4">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="4:4">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="4:4">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="4:4">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="4:4">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="4:4">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="4:4">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="4:4">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="4:4">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="4:4">
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="4:4">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="4:4">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="4:4">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="4:4">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="4:4">
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="4:4">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="4:4">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="4:4">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="4:4">
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="10"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="10"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="10"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="10"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="10"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="10"/>
+      <c r="D30" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1912,177 +1909,177 @@
   <sheetPr/>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.6083333333333" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20" style="11" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="11" customWidth="1"/>
-    <col min="4" max="5" width="26.95" style="11" customWidth="1"/>
-    <col min="6" max="6" width="25" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.4916666666667" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.8916666666667" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="22.6083333333333" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20" style="10" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="10" customWidth="1"/>
+    <col min="4" max="5" width="26.95" style="10" customWidth="1"/>
+    <col min="6" max="6" width="25" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17.4916666666667" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15.8916666666667" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="121" customHeight="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="7" customFormat="1" ht="121" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>2</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>2</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="27" customHeight="1" spans="1:8">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="7" customFormat="1" ht="27" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" ht="43" customHeight="1" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" spans="1:8">
-      <c r="A5" s="10">
+    <row r="5" s="9" customFormat="1" spans="1:8">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>10</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>4000</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>0</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="10" customFormat="1"/>
-    <row r="7" s="10" customFormat="1"/>
-    <row r="8" s="10" customFormat="1"/>
-    <row r="9" s="10" customFormat="1"/>
-    <row r="10" s="10" customFormat="1"/>
-    <row r="11" s="10" customFormat="1"/>
-    <row r="12" s="10" customFormat="1"/>
-    <row r="13" s="10" customFormat="1"/>
-    <row r="14" s="10" customFormat="1"/>
-    <row r="15" s="10" customFormat="1"/>
-    <row r="16" s="10" customFormat="1"/>
-    <row r="17" s="10" customFormat="1"/>
-    <row r="18" s="10" customFormat="1"/>
-    <row r="19" s="10" customFormat="1"/>
-    <row r="20" s="10" customFormat="1"/>
-    <row r="21" s="10" customFormat="1"/>
-    <row r="22" s="10" customFormat="1"/>
-    <row r="23" s="10" customFormat="1"/>
-    <row r="24" s="10" customFormat="1"/>
-    <row r="25" s="10" customFormat="1"/>
-    <row r="26" s="10" customFormat="1"/>
-    <row r="27" s="10" customFormat="1"/>
-    <row r="28" s="10" customFormat="1"/>
-    <row r="29" s="10" customFormat="1"/>
-    <row r="30" s="10" customFormat="1"/>
+    <row r="6" s="9" customFormat="1"/>
+    <row r="7" s="9" customFormat="1"/>
+    <row r="8" s="9" customFormat="1"/>
+    <row r="9" s="9" customFormat="1"/>
+    <row r="10" s="9" customFormat="1"/>
+    <row r="11" s="9" customFormat="1"/>
+    <row r="12" s="9" customFormat="1"/>
+    <row r="13" s="9" customFormat="1"/>
+    <row r="14" s="9" customFormat="1"/>
+    <row r="15" s="9" customFormat="1"/>
+    <row r="16" s="9" customFormat="1"/>
+    <row r="17" s="9" customFormat="1"/>
+    <row r="18" s="9" customFormat="1"/>
+    <row r="19" s="9" customFormat="1"/>
+    <row r="20" s="9" customFormat="1"/>
+    <row r="21" s="9" customFormat="1"/>
+    <row r="22" s="9" customFormat="1"/>
+    <row r="23" s="9" customFormat="1"/>
+    <row r="24" s="9" customFormat="1"/>
+    <row r="25" s="9" customFormat="1"/>
+    <row r="26" s="9" customFormat="1"/>
+    <row r="27" s="9" customFormat="1"/>
+    <row r="28" s="9" customFormat="1"/>
+    <row r="29" s="9" customFormat="1"/>
+    <row r="30" s="9" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:H4">
@@ -2101,7 +2098,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2119,182 +2116,182 @@
   </cols>
   <sheetData>
     <row r="1" ht="174" customHeight="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>2</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>2</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>2</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>2</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:10">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:10">
-      <c r="A5" s="4">
+    <row r="5" s="3" customFormat="1" spans="1:10">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="b">
+      <c r="C5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>3</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1"/>
-    <row r="7" s="4" customFormat="1"/>
-    <row r="8" s="4" customFormat="1"/>
-    <row r="9" s="4" customFormat="1"/>
-    <row r="10" s="4" customFormat="1"/>
-    <row r="11" s="4" customFormat="1"/>
-    <row r="12" s="4" customFormat="1"/>
-    <row r="13" s="4" customFormat="1"/>
-    <row r="14" s="4" customFormat="1"/>
-    <row r="15" s="4" customFormat="1"/>
-    <row r="16" s="4" customFormat="1"/>
-    <row r="17" s="4" customFormat="1"/>
-    <row r="18" s="4" customFormat="1"/>
-    <row r="19" s="4" customFormat="1"/>
-    <row r="20" s="4" customFormat="1"/>
-    <row r="21" s="4" customFormat="1"/>
-    <row r="22" s="4" customFormat="1"/>
-    <row r="23" s="4" customFormat="1"/>
-    <row r="24" s="4" customFormat="1"/>
+    <row r="6" s="3" customFormat="1"/>
+    <row r="7" s="3" customFormat="1"/>
+    <row r="8" s="3" customFormat="1"/>
+    <row r="9" s="3" customFormat="1"/>
+    <row r="10" s="3" customFormat="1"/>
+    <row r="11" s="3" customFormat="1"/>
+    <row r="12" s="3" customFormat="1"/>
+    <row r="13" s="3" customFormat="1"/>
+    <row r="14" s="3" customFormat="1"/>
+    <row r="15" s="3" customFormat="1"/>
+    <row r="16" s="3" customFormat="1"/>
+    <row r="17" s="3" customFormat="1"/>
+    <row r="18" s="3" customFormat="1"/>
+    <row r="19" s="3" customFormat="1"/>
+    <row r="20" s="3" customFormat="1"/>
+    <row r="21" s="3" customFormat="1"/>
+    <row r="22" s="3" customFormat="1"/>
+    <row r="23" s="3" customFormat="1"/>
+    <row r="24" s="3" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
@@ -2866,19 +2863,19 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>153</v>
       </c>
     </row>

--- a/配置文档/子弹及效果相关/子弹配置.xlsx
+++ b/配置文档/子弹及效果相关/子弹配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" firstSheet="2"/>
+    <workbookView windowHeight="17655" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_BulletScene_子弹场景数据" sheetId="6" r:id="rId1"/>
@@ -35,6 +35,61 @@
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="ID_FCAE7E6E6D8742E79BB6A5564E333C7B" descr="射线炮塔弹"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5519420" y="1682750"/>
+          <a:ext cx="38100" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ID_3B8EAE66BAEA4426B59F0AEE51C3CFD4" descr="射线炮塔弹"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15731490" y="2693670"/>
+          <a:ext cx="38100" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" odcFile="F:\Remnant Afterglow Project\工具\基础配置\数据类型.accdb 数据类型.odc" name="连接" type="1" refreshOnLoad="1" background="1" refreshedVersion="2" saveData="1">
@@ -44,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="171">
   <si>
     <t>该表用于配置
 子弹基础数据
@@ -102,8 +157,7 @@
 也是子弹脚本中子弹label的名称</t>
   </si>
   <si>
-    <t>动画类型列表
-cfg_AnimaExplode_子弹动画id列表</t>
+    <t>子弹描述</t>
   </si>
   <si>
     <t>子弹场景类型id：
@@ -125,22 +179,41 @@
 不写表示无音效</t>
   </si>
   <si>
+    <t>子弹图层</t>
+  </si>
+  <si>
+    <t>子弹图</t>
+  </si>
+  <si>
+    <t>动画类型列表
+cfg_AnimaExplode_子弹动画id列表</t>
+  </si>
+  <si>
     <t>BulletLabel</t>
   </si>
   <si>
+    <t>SceneType</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>CollideId</t>
+  </si>
+  <si>
+    <t>SoundId</t>
+  </si>
+  <si>
+    <t>ZIndex</t>
+  </si>
+  <si>
+    <t>BulletPng</t>
+  </si>
+  <si>
     <t>AnimaTypeList</t>
   </si>
   <si>
-    <t>SceneType</t>
-  </si>
-  <si>
-    <t>Logic</t>
-  </si>
-  <si>
-    <t>CollideId</t>
-  </si>
-  <si>
-    <t>SoundId</t>
+    <t>PNG</t>
   </si>
   <si>
     <t>&lt;INT&gt;</t>
@@ -152,10 +225,36 @@
     <t>ce1.xml</t>
   </si>
   <si>
+    <t>hmgLsr</t>
+  </si>
+  <si>
+    <t>A.xml</t>
+  </si>
+  <si>
+    <t>fastBullet</t>
+  </si>
+  <si>
+    <t>B.xml</t>
+  </si>
+  <si>
     <t>子弹名称</t>
   </si>
   <si>
-    <t>子弹属性伤害</t>
+    <t>对护盾伤害</t>
+  </si>
+  <si>
+    <t>对装甲伤害</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对结构伤害
+</t>
+  </si>
+  <si>
+    <t>穿透伤害
+直接对结构造成杀伤</t>
+  </si>
+  <si>
+    <t>击中运行事件id列表</t>
   </si>
   <si>
     <t xml:space="preserve">子弹最大存在时间，
@@ -166,16 +265,28 @@
     <t>子弹最大飞行距离</t>
   </si>
   <si>
-    <t>反弹次数区间</t>
-  </si>
-  <si>
-    <t>子弹穿透次数区间</t>
+    <t>反弹次数</t>
+  </si>
+  <si>
+    <t>子弹穿透次数</t>
   </si>
   <si>
     <t>BulletName</t>
   </si>
   <si>
-    <t>AttrHarm</t>
+    <t>#ShieldHarm</t>
+  </si>
+  <si>
+    <t>#ArmourHarm</t>
+  </si>
+  <si>
+    <t>#StructureHarm</t>
+  </si>
+  <si>
+    <t>#ElementHarm</t>
+  </si>
+  <si>
+    <t>#HitEvent</t>
   </si>
   <si>
     <t>MaxLifeTime</t>
@@ -190,16 +301,13 @@
     <t>Penetration</t>
   </si>
   <si>
-    <t>&lt;(FLOAT)&gt;</t>
-  </si>
-  <si>
     <t>FLOAT</t>
   </si>
   <si>
     <t>测试子弹</t>
   </si>
   <si>
-    <t>（1,-10）</t>
+    <t>射击塔弹药</t>
   </si>
   <si>
     <t>是否有碰撞器
@@ -282,6 +390,9 @@
     <t>POINT</t>
   </si>
   <si>
+    <t>&lt;(FLOAT)&gt;</t>
+  </si>
+  <si>
     <t>(0,0)</t>
   </si>
   <si>
@@ -472,9 +583,6 @@
   </si>
   <si>
     <t>(1.2,3.5)|(1.4,3.2)</t>
-  </si>
-  <si>
-    <t>PNG</t>
   </si>
   <si>
     <t>null</t>
@@ -751,6 +859,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -812,12 +926,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,7 +1170,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1086,16 +1194,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1104,30 +1212,30 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,7 +1294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1221,6 +1329,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1550,8 +1673,8 @@
   <sheetPr/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1690,23 +1813,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.6083333333333" customWidth="1"/>
     <col min="2" max="2" width="30.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="3" max="3" width="12.2416666666667" style="12" customWidth="1"/>
     <col min="4" max="4" width="32.3" style="10" customWidth="1"/>
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="23.1416666666667" style="12" customWidth="1"/>
+    <col min="9" max="9" width="36.875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="85.5" spans="1:7">
+    <row r="1" ht="85.5" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1728,16 +1854,25 @@
       <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
-        <v>2</v>
+      <c r="C2" s="6">
+        <v>0</v>
       </c>
       <c r="D2" s="7">
         <v>2</v>
@@ -1749,42 +1884,56 @@
         <v>2</v>
       </c>
       <c r="G2" s="7">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2</v>
+      </c>
+      <c r="I2" s="15">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1797,83 +1946,201 @@
       <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:6">
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="35" customHeight="1" spans="1:10">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C5" s="14"/>
       <c r="D5" s="9">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="4:4">
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="4:4">
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="4:4">
+      <c r="H5" s="14">
+        <v>100</v>
+      </c>
+      <c r="I5" s="16" t="str">
+        <f>_xlfn.DISPIMG("ID_FCAE7E6E6D8742E79BB6A5564E333C7B",1)</f>
+        <v>=DISPIMG("ID_FCAE7E6E6D8742E79BB6A5564E333C7B",1)</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="48" customHeight="1" spans="1:10">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>100</v>
+      </c>
+      <c r="I6" s="16" t="str">
+        <f>_xlfn.DISPIMG("ID_FCAE7E6E6D8742E79BB6A5564E333C7B",1)</f>
+        <v>=DISPIMG("ID_FCAE7E6E6D8742E79BB6A5564E333C7B",1)</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="18" spans="1:10">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14">
+        <v>100</v>
+      </c>
+      <c r="I7" s="16" t="str">
+        <f>_xlfn.DISPIMG("ID_3B8EAE66BAEA4426B59F0AEE51C3CFD4",1)</f>
+        <v>=DISPIMG("ID_3B8EAE66BAEA4426B59F0AEE51C3CFD4",1)</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="3:9">
+      <c r="C8" s="14"/>
       <c r="D8" s="9"/>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="4:4">
+      <c r="H8" s="14"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="3:9">
+      <c r="C9" s="14"/>
       <c r="D9" s="9"/>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="4:4">
+      <c r="H9" s="14"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="3:9">
+      <c r="C10" s="14"/>
       <c r="D10" s="9"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="4:4">
+      <c r="H10" s="14"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="3:9">
+      <c r="C11" s="14"/>
       <c r="D11" s="9"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="4:4">
+      <c r="H11" s="14"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="3:9">
+      <c r="C12" s="14"/>
       <c r="D12" s="9"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="4:4">
+      <c r="H12" s="14"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="3:9">
+      <c r="C13" s="14"/>
       <c r="D13" s="9"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="4:4">
+      <c r="H13" s="14"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="3:9">
+      <c r="C14" s="14"/>
       <c r="D14" s="9"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="4:4">
+      <c r="H14" s="14"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="3:9">
+      <c r="C15" s="14"/>
       <c r="D15" s="9"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="4:4">
+      <c r="H15" s="14"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="3:9">
+      <c r="C16" s="14"/>
       <c r="D16" s="9"/>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="4:4">
+      <c r="H16" s="14"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="3:9">
+      <c r="C17" s="14"/>
       <c r="D17" s="9"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="4:4">
+      <c r="H17" s="14"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="3:9">
+      <c r="C18" s="14"/>
       <c r="D18" s="9"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="4:4">
+      <c r="H18" s="14"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="3:9">
+      <c r="C19" s="14"/>
       <c r="D19" s="9"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="4:4">
+      <c r="H19" s="14"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="3:9">
+      <c r="C20" s="14"/>
       <c r="D20" s="9"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="4:4">
+      <c r="H20" s="14"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="3:9">
+      <c r="C21" s="14"/>
       <c r="D21" s="9"/>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="4:4">
+      <c r="H21" s="14"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="3:9">
+      <c r="C22" s="14"/>
       <c r="D22" s="9"/>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="4:4">
+      <c r="H22" s="14"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="3:9">
+      <c r="C23" s="14"/>
       <c r="D23" s="9"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="4:4">
+      <c r="H23" s="14"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="3:9">
+      <c r="C24" s="14"/>
       <c r="D24" s="9"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="9"/>
@@ -1895,7 +2162,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4 H4:J4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -1907,25 +2174,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.6083333333333" style="10" customWidth="1"/>
     <col min="2" max="2" width="20" style="10" customWidth="1"/>
     <col min="3" max="3" width="18.25" style="10" customWidth="1"/>
-    <col min="4" max="5" width="26.95" style="10" customWidth="1"/>
-    <col min="6" max="6" width="25" style="10" customWidth="1"/>
-    <col min="7" max="7" width="17.4916666666667" style="10" customWidth="1"/>
-    <col min="8" max="8" width="15.8916666666667" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="4" max="9" width="26.95" style="10" customWidth="1"/>
+    <col min="10" max="10" width="25" style="10" customWidth="1"/>
+    <col min="11" max="11" width="17.4916666666667" style="10" customWidth="1"/>
+    <col min="12" max="12" width="15.8916666666667" style="10" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="121" customHeight="1" spans="1:8">
+    <row r="1" s="7" customFormat="1" ht="121" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1933,25 +2200,37 @@
         <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" ht="28" customHeight="1" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" ht="28" customHeight="1" spans="1:12">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1974,36 +2253,60 @@
         <v>2</v>
       </c>
       <c r="H2" s="7">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2</v>
+      </c>
+      <c r="K2" s="7">
+        <v>2</v>
+      </c>
+      <c r="L2" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" ht="27" customHeight="1" spans="1:8">
+    <row r="3" s="7" customFormat="1" ht="27" customHeight="1" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" ht="43" customHeight="1" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" ht="43" customHeight="1" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -2014,49 +2317,140 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" s="9" customFormat="1" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" s="9" customFormat="1" spans="1:12">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="11">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="D5" s="9">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
       </c>
       <c r="F5" s="9">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11">
+        <v>100</v>
+      </c>
+      <c r="J5" s="9">
+        <v>4000</v>
+      </c>
+      <c r="K5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" s="9" customFormat="1"/>
-    <row r="7" s="9" customFormat="1"/>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="1" spans="1:12">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="9">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>20</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11">
+        <v>100</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4000</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="9" customFormat="1" spans="1:12">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="9">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>20</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>6</v>
+      </c>
+      <c r="J7" s="9">
+        <v>500</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+    </row>
     <row r="8" s="9" customFormat="1"/>
     <row r="9" s="9" customFormat="1"/>
     <row r="10" s="9" customFormat="1"/>
@@ -2082,7 +2476,7 @@
     <row r="30" s="9" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:L4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2098,7 +2492,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2123,28 +2517,28 @@
         <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:10">
@@ -2184,31 +2578,31 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:10">
@@ -2219,28 +2613,28 @@
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:10">
@@ -2254,17 +2648,17 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -2322,19 +2716,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2342,16 +2736,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2359,16 +2753,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2379,13 +2773,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2393,16 +2787,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2410,16 +2804,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2431,10 +2825,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2442,16 +2836,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2459,16 +2853,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2476,16 +2870,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2493,16 +2887,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2510,16 +2904,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2527,13 +2921,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2541,10 +2935,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2552,10 +2946,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2563,10 +2957,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2574,10 +2968,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2585,10 +2979,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2596,10 +2990,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2607,10 +3001,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2618,10 +3012,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2629,10 +3023,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2640,10 +3034,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2651,10 +3045,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2662,10 +3056,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2673,16 +3067,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2690,16 +3084,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2707,16 +3101,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2724,16 +3118,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2741,13 +3135,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2755,16 +3149,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2772,16 +3166,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2789,16 +3183,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2806,16 +3200,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2823,16 +3217,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2840,14 +3234,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2855,11 +3249,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2867,16 +3261,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
